--- a/Magisterka/MEASUREMENTS.xlsx
+++ b/Magisterka/MEASUREMENTS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NataliaMilaniak\Desktop\Magisterka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NataliaMilaniak\Desktop\mgr\Magisterka\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="11640" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="11640" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="Mass" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>0WP1Z2</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>After 4 days 1naoh</t>
-  </si>
-  <si>
-    <t>after 1 day naoh</t>
   </si>
   <si>
     <t>6BWP1Z1</t>
@@ -601,11 +598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="693474944"/>
-        <c:axId val="693473312"/>
+        <c:axId val="-749488592"/>
+        <c:axId val="-749484240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="693474944"/>
+        <c:axId val="-749488592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +701,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693473312"/>
+        <c:crossAx val="-749484240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="693473312"/>
+        <c:axId val="-749484240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0000000000000016E-2"/>
@@ -825,7 +822,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693474944"/>
+        <c:crossAx val="-749488592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,11 +1334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693471136"/>
-        <c:axId val="693470048"/>
+        <c:axId val="-749490224"/>
+        <c:axId val="-749484784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693471136"/>
+        <c:axId val="-749490224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,12 +1451,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693470048"/>
+        <c:crossAx val="-749484784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693470048"/>
+        <c:axId val="-749484784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -1573,7 +1570,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693471136"/>
+        <c:crossAx val="-749490224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1945,11 +1942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693475488"/>
-        <c:axId val="693476032"/>
+        <c:axId val="-749495664"/>
+        <c:axId val="-749491312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693475488"/>
+        <c:axId val="-749495664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,12 +2003,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693476032"/>
+        <c:crossAx val="-749491312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693476032"/>
+        <c:axId val="-749491312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2065,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693475488"/>
+        <c:crossAx val="-749495664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,8 +2656,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693467328"/>
-        <c:axId val="693467872"/>
+        <c:axId val="-749497840"/>
+        <c:axId val="-749496208"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2949,7 +2946,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693467328"/>
+        <c:axId val="-749497840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,12 +3019,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693467872"/>
+        <c:crossAx val="-749496208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693467872"/>
+        <c:axId val="-749496208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +3105,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693467328"/>
+        <c:crossAx val="-749497840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3500,8 +3497,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="693462432"/>
-        <c:axId val="693461888"/>
+        <c:axId val="-749485872"/>
+        <c:axId val="-749483152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -4036,7 +4033,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="693462432"/>
+        <c:axId val="-749485872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,12 +4106,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693461888"/>
+        <c:crossAx val="-749483152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693461888"/>
+        <c:axId val="-749483152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,7 +4192,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693462432"/>
+        <c:crossAx val="-749485872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7456,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7484,16 +7481,16 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -8183,7 +8180,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0.2014</v>
@@ -8206,7 +8203,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>0.185</v>
@@ -8226,7 +8223,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>0.2084</v>
@@ -8246,7 +8243,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>0.2135</v>

--- a/Magisterka/MEASUREMENTS.xlsx
+++ b/Magisterka/MEASUREMENTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="11640" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="11640" windowHeight="5220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mass" sheetId="1" r:id="rId1"/>
@@ -598,11 +598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-749488592"/>
-        <c:axId val="-749484240"/>
+        <c:axId val="2037645808"/>
+        <c:axId val="2037645264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-749488592"/>
+        <c:axId val="2037645808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +634,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -701,7 +700,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749484240"/>
+        <c:crossAx val="2037645264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-749484240"/>
+        <c:axId val="2037645264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0000000000000016E-2"/>
@@ -761,7 +760,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -822,7 +820,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749488592"/>
+        <c:crossAx val="2037645808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,7 +834,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -948,7 +945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,7 +1024,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1141,7 +1136,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1257,7 +1251,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1334,11 +1327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-749490224"/>
-        <c:axId val="-749484784"/>
+        <c:axId val="2037646896"/>
+        <c:axId val="2037646352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-749490224"/>
+        <c:axId val="2037646896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1451,12 +1443,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749484784"/>
+        <c:crossAx val="2037646352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-749484784"/>
+        <c:axId val="2037646352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -1503,7 +1495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1570,7 +1561,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749490224"/>
+        <c:crossAx val="2037646896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +1575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1691,7 +1681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1942,11 +1931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-749495664"/>
-        <c:axId val="-749491312"/>
+        <c:axId val="2037652880"/>
+        <c:axId val="2037655600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-749495664"/>
+        <c:axId val="2037652880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,12 +1992,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749491312"/>
+        <c:crossAx val="2037655600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-749491312"/>
+        <c:axId val="2037655600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2054,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749495664"/>
+        <c:crossAx val="2037652880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,7 +2068,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2656,8 +2644,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-749497840"/>
-        <c:axId val="-749496208"/>
+        <c:axId val="2037647984"/>
+        <c:axId val="2037642544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2946,13 +2934,14 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-749497840"/>
+        <c:axId val="2037647984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3019,12 +3008,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749496208"/>
+        <c:crossAx val="2037642544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-749496208"/>
+        <c:axId val="2037642544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,6 +3034,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3105,7 +3095,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749497840"/>
+        <c:crossAx val="2037647984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3119,6 +3109,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3497,8 +3488,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-749485872"/>
-        <c:axId val="-749483152"/>
+        <c:axId val="2037648528"/>
+        <c:axId val="2037651248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -4033,7 +4024,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-749485872"/>
+        <c:axId val="2037648528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4106,12 +4097,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749483152"/>
+        <c:crossAx val="2037651248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-749483152"/>
+        <c:axId val="2037651248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +4183,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-749485872"/>
+        <c:crossAx val="2037648528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7453,7 +7444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -8423,8 +8414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Magisterka/MEASUREMENTS.xlsx
+++ b/Magisterka/MEASUREMENTS.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="11640" windowHeight="5220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="11640" windowHeight="5220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mass" sheetId="1" r:id="rId1"/>
     <sheet name="SIZE" sheetId="2" r:id="rId2"/>
+    <sheet name="Young" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
   <si>
     <t>0WP1Z2</t>
   </si>
@@ -362,6 +367,171 @@
   <si>
     <t xml:space="preserve">po 11 dniach </t>
   </si>
+  <si>
+    <t>3 DAYS</t>
+  </si>
+  <si>
+    <t>4 DAYS</t>
+  </si>
+  <si>
+    <t>6 DAYS</t>
+  </si>
+  <si>
+    <t>9 DAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 DAY </t>
+  </si>
+  <si>
+    <t>12 DAYS</t>
+  </si>
+  <si>
+    <t>0 DAYS</t>
+  </si>
+  <si>
+    <t>1WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>2WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>2WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>3WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>3WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>GR1_Y</t>
+  </si>
+  <si>
+    <t>GR1_Z</t>
+  </si>
+  <si>
+    <t>GR2_Y</t>
+  </si>
+  <si>
+    <t>GR2_Z</t>
+  </si>
+  <si>
+    <t>GR3_Y</t>
+  </si>
+  <si>
+    <t>GR3_Z</t>
+  </si>
+  <si>
+    <t>GR4_Y</t>
+  </si>
+  <si>
+    <t>GR4_Z</t>
+  </si>
+  <si>
+    <t>GR5_Y</t>
+  </si>
+  <si>
+    <t>GR5_Z</t>
+  </si>
+  <si>
+    <t>GR6_Y</t>
+  </si>
+  <si>
+    <t>GR6_Z</t>
+  </si>
+  <si>
+    <t>GR7_Y</t>
+  </si>
+  <si>
+    <t>GR7_Z</t>
+  </si>
+  <si>
+    <t>12WP1Z2_Y</t>
+  </si>
+  <si>
+    <t>12WP1Z2_Z</t>
+  </si>
+  <si>
+    <t>6WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>6WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>3BWP1Z1_Y</t>
+  </si>
+  <si>
+    <t>3BWP1Z1_Z</t>
+  </si>
+  <si>
+    <t>0WP1Z2_Y</t>
+  </si>
+  <si>
+    <t>0WP1Z2_Z</t>
+  </si>
+  <si>
+    <t>2WP1Z2_Y</t>
+  </si>
+  <si>
+    <t>2WP1Z2_Z</t>
+  </si>
+  <si>
+    <t>4BWP1Z1_Z</t>
+  </si>
+  <si>
+    <t>4BWP1Z1_Y</t>
+  </si>
+  <si>
+    <t>6BWP1Z1_Y</t>
+  </si>
+  <si>
+    <t>6BWP1Z1_Z</t>
+  </si>
+  <si>
+    <t>9WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>9WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>9BWP1_Z</t>
+  </si>
+  <si>
+    <t>9BWP1_Y</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>5WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>5WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>7WP1Z1_Z</t>
+  </si>
+  <si>
+    <t>7WP1Z1_Y</t>
+  </si>
+  <si>
+    <t>W_Y</t>
+  </si>
+  <si>
+    <t>W_Z</t>
+  </si>
+  <si>
+    <t>BW_Y</t>
+  </si>
+  <si>
+    <t>BW_Z</t>
+  </si>
+  <si>
+    <t>HA_Y</t>
+  </si>
+  <si>
+    <t>HA_Z</t>
+  </si>
 </sst>
 </file>
 
@@ -709,11 +879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434403520"/>
-        <c:axId val="433312880"/>
+        <c:axId val="-1507170032"/>
+        <c:axId val="-1831430976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434403520"/>
+        <c:axId val="-1507170032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +982,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433312880"/>
+        <c:crossAx val="-1831430976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433312880"/>
+        <c:axId val="-1831430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0000000000000016E-2"/>
@@ -933,7 +1103,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434403520"/>
+        <c:crossAx val="-1507170032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555933184"/>
-        <c:axId val="555946784"/>
+        <c:axId val="-1409968368"/>
+        <c:axId val="-1409966192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555933184"/>
+        <c:axId val="-1409968368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,12 +1587,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555946784"/>
+        <c:crossAx val="-1409966192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555946784"/>
+        <c:axId val="-1409966192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1535,7 +1705,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555933184"/>
+        <c:crossAx val="-1409968368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1884,11 +2054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555941888"/>
-        <c:axId val="555945696"/>
+        <c:axId val="-1409966736"/>
+        <c:axId val="-1409965104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555941888"/>
+        <c:axId val="-1409966736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,12 +2170,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555945696"/>
+        <c:crossAx val="-1409965104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555945696"/>
+        <c:axId val="-1409965104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2287,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555941888"/>
+        <c:crossAx val="-1409966736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2763,11 +2933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555938624"/>
-        <c:axId val="555932640"/>
+        <c:axId val="-1409963472"/>
+        <c:axId val="-1409967280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555938624"/>
+        <c:axId val="-1409963472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,12 +3025,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555932640"/>
+        <c:crossAx val="-1409967280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555932640"/>
+        <c:axId val="-1409967280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +3118,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555938624"/>
+        <c:crossAx val="-1409963472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3596,11 +3766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555935904"/>
-        <c:axId val="555944064"/>
+        <c:axId val="-1409969456"/>
+        <c:axId val="-1409968912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555935904"/>
+        <c:axId val="-1409969456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,12 +3858,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555944064"/>
+        <c:crossAx val="-1409968912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555944064"/>
+        <c:axId val="-1409968912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3951,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555935904"/>
+        <c:crossAx val="-1409969456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4428,11 +4598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555946240"/>
-        <c:axId val="555944608"/>
+        <c:axId val="-1501176672"/>
+        <c:axId val="-1501176128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555946240"/>
+        <c:axId val="-1501176672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,12 +4690,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555944608"/>
+        <c:crossAx val="-1501176128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555944608"/>
+        <c:axId val="-1501176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,7 +4783,2829 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555946240"/>
+        <c:crossAx val="-1501176672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>MODUŁ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> YOUNGA - Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GR1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70.056854382751851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.735999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GR2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>88.522771824096282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.578000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GR3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94.383125295811695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.361000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GR4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>161.64677641750498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.593000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>GR5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>181.9465532693294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>GR6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>230.49532788425537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>GR7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>177.20805234693643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.126000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1698364848"/>
+        <c:axId val="-1698376816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1698364848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1698376816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1698376816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1698364848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>MODUŁ YOUNGA - Z</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GR1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45.711222108947155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.748999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GR2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>66.200968220864766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.396999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GR3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70.487046752965554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GR4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>306.5471616530956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.724000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>GR5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>281.76520907157931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.144000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>GR6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>332.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.853999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>GR7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$M$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>252.98167256915855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.287999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1210921200"/>
+        <c:axId val="-1210921744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1210921200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1210921744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1210921744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1210921200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>0,05M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> NaOH</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>W:Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52.850608954522571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>W:Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.324127021126721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.792999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>BW:Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0605000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BW:Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.494999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50870000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HA:Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4481000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>HA:Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$R$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11509999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1698372464"/>
+        <c:axId val="-1698370288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1698372464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1698370288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1698370288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1698372464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>1M NaOH </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>W:Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Young!$Y$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$Y$2:$AB$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52.850608954522571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>W:Z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Young!$Y$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Young!$Y$3:$AB$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.324127021126721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1575623696"/>
+        <c:axId val="-1575615536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1575623696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1575615536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1575615536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1575623696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4739,6 +7731,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4828,6 +7821,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4943,6 +7937,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5058,6 +8053,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5137,11 +8133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556252736"/>
-        <c:axId val="556248928"/>
+        <c:axId val="-1831429344"/>
+        <c:axId val="-1831424992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556252736"/>
+        <c:axId val="-1831429344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,6 +8183,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5253,12 +8250,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556248928"/>
+        <c:crossAx val="-1831424992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556248928"/>
+        <c:axId val="-1831424992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -5305,6 +8302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5371,7 +8369,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556252736"/>
+        <c:crossAx val="-1831429344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5385,6 +8383,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5749,11 +8748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556242944"/>
-        <c:axId val="556241856"/>
+        <c:axId val="-1831426624"/>
+        <c:axId val="-1831429888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556242944"/>
+        <c:axId val="-1831426624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,12 +8809,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556241856"/>
+        <c:crossAx val="-1831429888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556241856"/>
+        <c:axId val="-1831429888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5872,7 +8871,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556242944"/>
+        <c:crossAx val="-1831426624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5998,6 +8997,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6533,11 +9533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556249472"/>
-        <c:axId val="556247840"/>
+        <c:axId val="-1831428800"/>
+        <c:axId val="-1831428256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556249472"/>
+        <c:axId val="-1831428800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6588,6 +9588,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6654,12 +9655,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556247840"/>
+        <c:crossAx val="-1831428256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556247840"/>
+        <c:axId val="-1831428256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,6 +9706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6771,7 +9773,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556249472"/>
+        <c:crossAx val="-1831428800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6785,6 +9787,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7422,11 +10425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556242400"/>
-        <c:axId val="556245120"/>
+        <c:axId val="-1506176784"/>
+        <c:axId val="-1506176240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556242400"/>
+        <c:axId val="-1506176784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7514,12 +10517,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556245120"/>
+        <c:crossAx val="-1506176240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556245120"/>
+        <c:axId val="-1506176240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7609,7 +10612,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556242400"/>
+        <c:crossAx val="-1506176784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8027,8 +11030,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556245664"/>
-        <c:axId val="556241312"/>
+        <c:axId val="-1506174608"/>
+        <c:axId val="-1506174064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -8596,7 +11599,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556245664"/>
+        <c:axId val="-1506174608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8700,12 +11703,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556241312"/>
+        <c:crossAx val="-1506174064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556241312"/>
+        <c:axId val="-1506174064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8817,7 +11820,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556245664"/>
+        <c:crossAx val="-1506174608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9202,11 +12205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556254368"/>
-        <c:axId val="556254912"/>
+        <c:axId val="-1506172432"/>
+        <c:axId val="-1506171888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556254368"/>
+        <c:axId val="-1506172432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9318,12 +12321,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556254912"/>
+        <c:crossAx val="-1506171888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556254912"/>
+        <c:axId val="-1506171888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9436,7 +12439,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556254368"/>
+        <c:crossAx val="-1506172432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9877,8 +12880,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556247296"/>
-        <c:axId val="556248384"/>
+        <c:axId val="-1506178416"/>
+        <c:axId val="-1515380080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -10431,7 +13434,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556247296"/>
+        <c:axId val="-1506178416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -10535,12 +13538,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556248384"/>
+        <c:crossAx val="-1515380080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556248384"/>
+        <c:axId val="-1515380080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10647,7 +13650,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556247296"/>
+        <c:crossAx val="-1506178416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11032,11 +14035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555934816"/>
-        <c:axId val="555934272"/>
+        <c:axId val="-1515378992"/>
+        <c:axId val="-1515380624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555934816"/>
+        <c:axId val="-1515378992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11148,12 +14151,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555934272"/>
+        <c:crossAx val="-1515380624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555934272"/>
+        <c:axId val="-1515380624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11274,7 +14277,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555934816"/>
+        <c:crossAx val="-1515378992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11555,6 +14558,166 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15010,6 +18173,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -19146,16 +24373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19176,16 +24403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19236,16 +24463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19453,16 +24680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19483,16 +24710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19513,16 +24740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19542,6 +24769,394 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DP1_K_Z"/>
+      <sheetName val="DP2_K_X"/>
+      <sheetName val="DP2_K_Y"/>
+      <sheetName val="DP2_K_Z"/>
+      <sheetName val="DP3_K_X"/>
+      <sheetName val="DP3_K_Y"/>
+      <sheetName val="DP3_K_Z"/>
+      <sheetName val="DP4_K_Z"/>
+      <sheetName val="DP5_K_Z"/>
+      <sheetName val="DP12_K_Z"/>
+      <sheetName val="Podsumowanie"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="7">
+          <cell r="I7">
+            <v>59.275425672369174</v>
+          </cell>
+          <cell r="J7">
+            <v>43.327718397080872</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>24.74136222108751</v>
+          </cell>
+          <cell r="J9">
+            <v>37.952001793969316</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>64.742405377235627</v>
+          </cell>
+          <cell r="J11">
+            <v>40.958812531809507</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>30.636196702369194</v>
+          </cell>
+          <cell r="J13">
+            <v>32.759054100988884</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>23.490962057542312</v>
+          </cell>
+          <cell r="J15">
+            <v>35.959070076999431</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17">
+            <v>25.762533184982662</v>
+          </cell>
+          <cell r="J17">
+            <v>34.542067903578861</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="GR1_K_Y"/>
+      <sheetName val="GR1_K_Z"/>
+      <sheetName val="GR2_K_Y"/>
+      <sheetName val="GR2_K_Z"/>
+      <sheetName val="GR3_K_Y"/>
+      <sheetName val="GR3_K_Z"/>
+      <sheetName val="GR4_K_Y"/>
+      <sheetName val="GR4_K_Z"/>
+      <sheetName val="GR5_K_Y"/>
+      <sheetName val="GR5_K_Z"/>
+      <sheetName val="GR6_K_X"/>
+      <sheetName val="GR6_K_Y"/>
+      <sheetName val="GR6_K_Z"/>
+      <sheetName val="GR7_K_X"/>
+      <sheetName val="GR7_K_Y"/>
+      <sheetName val="GR7_K_Z"/>
+      <sheetName val="Podsumowanie"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="3">
+          <cell r="I3">
+            <v>75.371312251416498</v>
+          </cell>
+          <cell r="J3">
+            <v>64.74239651408719</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4"/>
+          <cell r="J4"/>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>45.230167518926358</v>
+          </cell>
+          <cell r="J5">
+            <v>46.192276698967952</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6"/>
+          <cell r="J6"/>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>81.557485336530405</v>
+          </cell>
+          <cell r="J7">
+            <v>95.488058311662158</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8"/>
+          <cell r="J8"/>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>56.481282418380353</v>
+          </cell>
+          <cell r="J9">
+            <v>75.920654023349186</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10"/>
+          <cell r="J10"/>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>90.219854664149011</v>
+          </cell>
+          <cell r="J11">
+            <v>98.546395927474379</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12"/>
+          <cell r="J12"/>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>70.487046752965554</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>161.64677641750498</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17">
+            <v>481.12678534433479</v>
+          </cell>
+          <cell r="J17">
+            <v>131.96753796185638</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18"/>
+          <cell r="J18"/>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>145.69677069980435</v>
+          </cell>
+          <cell r="J19">
+            <v>218.19633583885445</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20"/>
+          <cell r="J20"/>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>251.74125084263667</v>
+          </cell>
+          <cell r="J21">
+            <v>311.78916730052191</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22"/>
+          <cell r="J22"/>
+        </row>
+        <row r="25">
+          <cell r="I25">
+            <v>184.27495120964431</v>
+          </cell>
+          <cell r="J25">
+            <v>276.71570455886643</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26"/>
+          <cell r="J26"/>
+        </row>
+        <row r="31">
+          <cell r="I31">
+            <v>220.95727703119468</v>
+          </cell>
+          <cell r="J31">
+            <v>133.45882766267815</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32"/>
+          <cell r="J32"/>
+        </row>
+        <row r="33">
+          <cell r="I33">
+            <v>252.98167256915855</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19809,8 +25424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21093,8 +26708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26424,4 +32039,993 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1">
+        <f>AVERAGE([2]Podsumowanie!$I$3:$J$4)</f>
+        <v>70.056854382751851</v>
+      </c>
+      <c r="N1">
+        <v>43.735999999999997</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>3</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>6</v>
+      </c>
+      <c r="V1">
+        <v>9</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>4</v>
+      </c>
+      <c r="AB1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="D2">
+        <v>5.6029999999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE([2]Podsumowanie!$I$5:$J$6)</f>
+        <v>45.711222108947155</v>
+      </c>
+      <c r="N2">
+        <v>31.748999999999999</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2">
+        <v>52.850608954522571</v>
+      </c>
+      <c r="S2">
+        <v>49.1</v>
+      </c>
+      <c r="T2">
+        <v>42.972999999999999</v>
+      </c>
+      <c r="U2">
+        <v>28.7</v>
+      </c>
+      <c r="X2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2">
+        <v>52.850608954522571</v>
+      </c>
+      <c r="Z2">
+        <v>44.481999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>41.276000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="D3">
+        <v>1.5495000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE([2]Podsumowanie!$I$7:$J$8)</f>
+        <v>88.522771824096282</v>
+      </c>
+      <c r="N3">
+        <v>50.578000000000003</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3">
+        <v>41.324127021126721</v>
+      </c>
+      <c r="S3">
+        <v>35.164999999999999</v>
+      </c>
+      <c r="T3">
+        <v>24.33</v>
+      </c>
+      <c r="U3">
+        <v>21.792999999999999</v>
+      </c>
+      <c r="X3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3">
+        <v>41.324127021126721</v>
+      </c>
+      <c r="Z3">
+        <v>28.204999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>24.474</v>
+      </c>
+      <c r="AB3">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE([2]Podsumowanie!$I$9:$J$10)</f>
+        <v>66.200968220864766</v>
+      </c>
+      <c r="N4">
+        <v>45.396999999999998</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4">
+        <v>21.73</v>
+      </c>
+      <c r="S4">
+        <v>13.542</v>
+      </c>
+      <c r="T4">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="U4">
+        <v>3.0605000000000002</v>
+      </c>
+      <c r="X4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y4">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE([2]Podsumowanie!$I$11:$J$12)</f>
+        <v>94.383125295811695</v>
+      </c>
+      <c r="N5">
+        <v>66.361000000000004</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5">
+        <v>20.65</v>
+      </c>
+      <c r="S5">
+        <v>12.494999999999999</v>
+      </c>
+      <c r="T5">
+        <v>7.11</v>
+      </c>
+      <c r="U5">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="X5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="E6">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE([2]Podsumowanie!$I$13)</f>
+        <v>70.487046752965554</v>
+      </c>
+      <c r="N6">
+        <v>48.57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="S6">
+        <v>5.6029999999999998</v>
+      </c>
+      <c r="T6">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="U6">
+        <v>3.4481000000000002</v>
+      </c>
+      <c r="X6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y6">
+        <v>6.0990000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7">
+        <f>[2]Podsumowanie!$I$15</f>
+        <v>161.64677641750498</v>
+      </c>
+      <c r="N7">
+        <v>94.593000000000004</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="S7">
+        <v>2.0655999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.5495000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="X7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y7">
+        <v>5.9980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE([2]Podsumowanie!$I$17:$J$18)</f>
+        <v>306.5471616530956</v>
+      </c>
+      <c r="N8">
+        <v>88.724000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE([2]Podsumowanie!$I$19:$J$20)</f>
+        <v>181.9465532693294</v>
+      </c>
+      <c r="N9">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE([2]Podsumowanie!$I$21:$J$22)</f>
+        <v>281.76520907157931</v>
+      </c>
+      <c r="N10">
+        <v>86.144000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE([2]Podsumowanie!$I$25:$J$26)</f>
+        <v>230.49532788425537</v>
+      </c>
+      <c r="N11">
+        <v>106.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12">
+        <v>332.68799999999999</v>
+      </c>
+      <c r="N12">
+        <v>86.853999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE([2]Podsumowanie!$I$31:$J$32)</f>
+        <v>177.20805234693643</v>
+      </c>
+      <c r="N13">
+        <v>98.126000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE([2]Podsumowanie!$I$33)</f>
+        <v>252.98167256915855</v>
+      </c>
+      <c r="N14">
+        <v>93.287999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.0990000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="C16">
+        <v>3.4481000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="C17">
+        <v>2.0655999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>36.066000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE([1]Podsumowanie!$I$7:$J$8)</f>
+        <v>51.301572034725027</v>
+      </c>
+      <c r="D19">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE([1]Podsumowanie!$I$9:$J$10)</f>
+        <v>31.346682007528415</v>
+      </c>
+      <c r="D20">
+        <v>21.792999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE([1]Podsumowanie!$I$13:$J$14)</f>
+        <v>31.697625401679041</v>
+      </c>
+      <c r="E21">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE([1]Podsumowanie!$I$15:$J$16)</f>
+        <v>29.725016067270872</v>
+      </c>
+      <c r="E22">
+        <v>24.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE([1]Podsumowanie!$I$17:$J$18)</f>
+        <v>30.152300544280763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24">
+        <f>B19</f>
+        <v>51.301572034725027</v>
+      </c>
+      <c r="H24">
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B19:B24)</f>
+        <v>37.587461348368187</v>
+      </c>
+      <c r="H25">
+        <v>24.474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE([1]Podsumowanie!$I$11:$J$12)</f>
+        <v>52.850608954522571</v>
+      </c>
+      <c r="C26">
+        <v>42.972999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B19:B20)</f>
+        <v>41.324127021126721</v>
+      </c>
+      <c r="C27">
+        <v>35.164999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>21.76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30">
+        <v>21.76</v>
+      </c>
+      <c r="D30">
+        <v>13.542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <v>21.76</v>
+      </c>
+      <c r="D31">
+        <v>12.494999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32">
+        <v>21.76</v>
+      </c>
+      <c r="E32">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33">
+        <v>21.76</v>
+      </c>
+      <c r="E33">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <v>21.76</v>
+      </c>
+      <c r="F34">
+        <v>0.50870000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35">
+        <v>21.76</v>
+      </c>
+      <c r="F35">
+        <v>3.0605000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38">
+        <v>21.76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39">
+        <v>21.76</v>
+      </c>
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40">
+        <f>B26</f>
+        <v>52.850608954522571</v>
+      </c>
+      <c r="I40">
+        <v>41.276000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41">
+        <f>B27</f>
+        <v>41.324127021126721</v>
+      </c>
+      <c r="I41">
+        <v>28.204999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>31.200399941070703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43">
+        <f>B19</f>
+        <v>51.301572034725027</v>
+      </c>
+      <c r="G43">
+        <v>44.481999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44">
+        <v>31.200399941070703</v>
+      </c>
+      <c r="G44">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>31.200399941070703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>31.200399941070703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>31.200399941070703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48">
+        <f>AVERAGE([2]Podsumowanie!$I$3:$J$4)</f>
+        <v>70.056854382751851</v>
+      </c>
+      <c r="D48">
+        <v>43.735999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE([2]Podsumowanie!$I$5:$J$6)</f>
+        <v>45.711222108947155</v>
+      </c>
+      <c r="D49">
+        <v>31.748999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE([2]Podsumowanie!$I$7:$J$8)</f>
+        <v>88.522771824096282</v>
+      </c>
+      <c r="D50">
+        <v>50.578000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE([2]Podsumowanie!$I$9:$J$10)</f>
+        <v>66.200968220864766</v>
+      </c>
+      <c r="D51">
+        <v>45.396999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE([2]Podsumowanie!$I$11:$J$12)</f>
+        <v>94.383125295811695</v>
+      </c>
+      <c r="D52">
+        <v>66.361000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE([2]Podsumowanie!$I$13)</f>
+        <v>70.487046752965554</v>
+      </c>
+      <c r="D53">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54">
+        <f>[2]Podsumowanie!$I$15</f>
+        <v>161.64677641750498</v>
+      </c>
+      <c r="D54">
+        <v>94.593000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55">
+        <f>AVERAGE([2]Podsumowanie!$I$17:$J$18)</f>
+        <v>306.5471616530956</v>
+      </c>
+      <c r="D55">
+        <v>88.724000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56">
+        <f>AVERAGE([2]Podsumowanie!$I$19:$J$20)</f>
+        <v>181.9465532693294</v>
+      </c>
+      <c r="D56">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE([2]Podsumowanie!$I$21:$J$22)</f>
+        <v>281.76520907157931</v>
+      </c>
+      <c r="D57">
+        <v>86.144000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE([2]Podsumowanie!$I$25:$J$26)</f>
+        <v>230.49532788425537</v>
+      </c>
+      <c r="D58">
+        <v>106.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59">
+        <v>332.68799999999999</v>
+      </c>
+      <c r="D59">
+        <v>86.853999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60">
+        <f>AVERAGE([2]Podsumowanie!$I$31:$J$32)</f>
+        <v>177.20805234693643</v>
+      </c>
+      <c r="D60">
+        <v>98.126000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61">
+        <f>AVERAGE([2]Podsumowanie!$I$33)</f>
+        <v>252.98167256915855</v>
+      </c>
+      <c r="D61">
+        <v>93.287999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>